--- a/bots/crawl_ch/output/bread_coop_2022-12-22.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-12-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O405"/>
+  <dimension ref="A1:O404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -4133,7 +4133,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -5642,7 +5642,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -5926,7 +5926,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -6064,7 +6064,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -6137,7 +6137,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -6283,7 +6283,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -6352,7 +6352,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -6421,7 +6421,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -6778,7 +6778,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -6847,7 +6847,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -6920,7 +6920,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -6993,7 +6993,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -7062,7 +7062,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -7208,7 +7208,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -7277,7 +7277,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -7569,7 +7569,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -7638,7 +7638,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -7703,7 +7703,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7776,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -7845,7 +7845,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -7914,7 +7914,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -7983,7 +7983,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -8056,7 +8056,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -8129,7 +8129,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -8198,7 +8198,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -8344,7 +8344,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -8417,7 +8417,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -8486,7 +8486,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -8770,7 +8770,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -8843,7 +8843,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -8989,7 +8989,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -9058,7 +9058,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -9127,7 +9127,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -9200,7 +9200,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -9269,7 +9269,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -9338,7 +9338,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -9407,7 +9407,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -9553,7 +9553,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -9622,7 +9622,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -9695,7 +9695,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -9768,7 +9768,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -9841,7 +9841,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -9910,7 +9910,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -9979,7 +9979,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -10048,7 +10048,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -10117,7 +10117,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -10186,7 +10186,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -10259,7 +10259,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -10328,7 +10328,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -10397,7 +10397,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -10470,7 +10470,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -10543,7 +10543,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -10685,7 +10685,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -10754,7 +10754,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -10900,7 +10900,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -11107,7 +11107,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -11176,7 +11176,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11249,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -11322,7 +11322,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -11460,7 +11460,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -11529,7 +11529,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -11602,7 +11602,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -11675,7 +11675,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -11744,7 +11744,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -11817,7 +11817,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -11963,7 +11963,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -12105,7 +12105,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -12247,7 +12247,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -12320,7 +12320,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -12391,7 +12391,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -12460,7 +12460,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -12529,7 +12529,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -12602,7 +12602,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -12675,7 +12675,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -12744,7 +12744,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -12813,7 +12813,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -12886,7 +12886,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -12955,7 +12955,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -13028,7 +13028,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -13097,7 +13097,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -13170,7 +13170,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -13239,7 +13239,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -13308,7 +13308,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -13377,7 +13377,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -13450,7 +13450,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -13523,7 +13523,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -13665,7 +13665,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -13738,7 +13738,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -13807,7 +13807,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -13876,7 +13876,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -13949,7 +13949,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -14022,7 +14022,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -14091,7 +14091,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -14160,7 +14160,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -14302,7 +14302,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -14371,7 +14371,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -14440,7 +14440,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -14509,7 +14509,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -14582,7 +14582,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -14655,7 +14655,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -14724,7 +14724,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -14797,7 +14797,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -14870,7 +14870,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -14943,7 +14943,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -15012,7 +15012,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -15085,7 +15085,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -15154,7 +15154,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -15227,7 +15227,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -15296,7 +15296,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -15369,7 +15369,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -15442,7 +15442,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -15515,7 +15515,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -15588,7 +15588,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -15730,7 +15730,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -15803,7 +15803,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -15876,7 +15876,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -15949,7 +15949,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -16022,7 +16022,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -16091,7 +16091,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -16160,7 +16160,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -16229,7 +16229,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -16302,7 +16302,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -16371,7 +16371,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -16444,7 +16444,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -16517,7 +16517,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -16586,7 +16586,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -16655,7 +16655,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -16728,7 +16728,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -16797,7 +16797,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -16870,7 +16870,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -16939,7 +16939,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -17012,7 +17012,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -17085,7 +17085,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -17158,7 +17158,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -17227,7 +17227,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -17296,7 +17296,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -17365,7 +17365,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -17434,7 +17434,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -17503,7 +17503,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -17572,7 +17572,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -17645,7 +17645,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -17712,7 +17712,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -17781,7 +17781,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -17850,7 +17850,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -17919,7 +17919,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -17992,7 +17992,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -18061,7 +18061,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -18130,7 +18130,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -18203,7 +18203,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -18272,7 +18272,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -18345,7 +18345,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -18418,7 +18418,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -18491,7 +18491,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -18560,7 +18560,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -18629,7 +18629,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -18698,7 +18698,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -18767,7 +18767,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -18840,7 +18840,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -18911,7 +18911,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -18978,7 +18978,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -19047,7 +19047,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -19120,7 +19120,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -19189,7 +19189,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -19262,7 +19262,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -19331,7 +19331,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -19400,7 +19400,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -19469,7 +19469,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -19538,7 +19538,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -19609,7 +19609,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -19682,7 +19682,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -19755,7 +19755,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -19828,7 +19828,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -19897,7 +19897,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -19966,7 +19966,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -20035,7 +20035,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -20108,7 +20108,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -20177,7 +20177,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -20250,7 +20250,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -20319,7 +20319,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -20392,7 +20392,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -20465,7 +20465,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -20538,7 +20538,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -20611,7 +20611,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -20684,7 +20684,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -20826,7 +20826,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -20893,7 +20893,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -20966,7 +20966,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -21035,7 +21035,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -21108,7 +21108,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -21181,7 +21181,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -21250,7 +21250,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -21319,7 +21319,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -21392,7 +21392,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -21465,7 +21465,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -21538,7 +21538,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -21607,7 +21607,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -21680,7 +21680,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -21749,7 +21749,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -21822,7 +21822,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -21895,7 +21895,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -21964,7 +21964,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -22033,7 +22033,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -22106,7 +22106,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -22175,7 +22175,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -22248,7 +22248,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -22317,7 +22317,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -22390,7 +22390,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -22463,7 +22463,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -22536,7 +22536,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -22605,7 +22605,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -22674,7 +22674,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -22743,7 +22743,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -22812,7 +22812,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -22881,7 +22881,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -22950,7 +22950,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -23023,7 +23023,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -23092,7 +23092,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -23161,7 +23161,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -23234,7 +23234,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -23307,7 +23307,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -23380,7 +23380,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -23449,7 +23449,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -23518,7 +23518,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -23587,7 +23587,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -23656,7 +23656,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -23729,7 +23729,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -23798,7 +23798,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -23867,7 +23867,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -23936,7 +23936,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -24003,7 +24003,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -24072,7 +24072,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -24141,7 +24141,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -24214,7 +24214,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -24287,7 +24287,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -24356,7 +24356,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -24425,7 +24425,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -24498,7 +24498,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -24567,7 +24567,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -24636,7 +24636,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -24709,7 +24709,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -24778,7 +24778,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -24847,7 +24847,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -24916,7 +24916,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -24985,7 +24985,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -25054,7 +25054,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -25123,7 +25123,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -25192,7 +25192,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -25261,7 +25261,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -25330,7 +25330,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -25397,7 +25397,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -25470,7 +25470,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -25539,7 +25539,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -25608,7 +25608,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -25681,7 +25681,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -25748,7 +25748,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -25817,7 +25817,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -25886,7 +25886,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -25955,7 +25955,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -26024,7 +26024,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -26093,7 +26093,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -26162,7 +26162,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -26231,7 +26231,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -26300,7 +26300,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -26373,7 +26373,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -26446,7 +26446,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -26519,7 +26519,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -26586,7 +26586,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -26655,7 +26655,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -26724,7 +26724,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -26793,7 +26793,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -26866,7 +26866,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -26937,7 +26937,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -27010,7 +27010,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -27079,7 +27079,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -27152,7 +27152,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -27225,7 +27225,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -27296,7 +27296,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -27369,7 +27369,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -27442,7 +27442,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -27511,7 +27511,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -27584,7 +27584,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -27655,7 +27655,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -27728,7 +27728,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -27795,7 +27795,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -27862,7 +27862,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -27935,7 +27935,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -28004,7 +28004,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -28075,7 +28075,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -28144,7 +28144,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -28213,7 +28213,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -28282,7 +28282,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -28349,7 +28349,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -28418,7 +28418,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -28487,7 +28487,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -28556,7 +28556,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -28619,7 +28619,7 @@
       </c>
       <c r="M398" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm 20% ab 2 Aktion 4.95 Schweizer Franken</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm - Online kein Bestand 20% ab 2 Aktion 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N398" t="inlineStr">
@@ -28629,7 +28629,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -28702,7 +28702,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -28769,7 +28769,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -28842,7 +28842,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -28909,7 +28909,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
@@ -28976,35 +28976,35 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>6359050</t>
+          <t>4967215</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Biber mit Sujet 2x90g</t>
+          <t>Bonne Maman Madeleine 7 Stück</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/biber-mit-sujet-2x90g/p/6359050</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
         </is>
       </c>
       <c r="D404" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E404" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
@@ -29014,7 +29014,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>2.19/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -29024,7 +29024,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -29039,82 +29039,13 @@
       </c>
       <c r="M404" t="inlineStr">
         <is>
-          <t>Biber mit Sujet 2x90g - Online kein Bestand 3.95 Schweizer Franken</t>
+          <t>Bonne Maman Madeleine 7 Stück - Online kein Bestand 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-12-22 06:49:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>4967215</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>Bonne Maman Madeleine 7 Stück</t>
-        </is>
-      </c>
-      <c r="C405" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
-        </is>
-      </c>
-      <c r="D405" t="n">
-        <v>8</v>
-      </c>
-      <c r="E405" t="n">
-        <v>4</v>
-      </c>
-      <c r="F405" t="inlineStr">
-        <is>
-          <t>Bonne Maman</t>
-        </is>
-      </c>
-      <c r="G405" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2.26/100g</t>
-        </is>
-      </c>
-      <c r="I405" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J405" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L405" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
-        </is>
-      </c>
-      <c r="M405" t="inlineStr">
-        <is>
-          <t>Bonne Maman Madeleine 7 Stück - Online kein Bestand 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N405" t="inlineStr"/>
-      <c r="O405" t="inlineStr">
-        <is>
-          <t>2022-12-22 06:49:47</t>
+          <t>2022-12-22 12:56:18</t>
         </is>
       </c>
     </row>

--- a/bots/crawl_ch/output/bread_coop_2022-12-22.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-12-22.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -4133,7 +4133,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -5642,7 +5642,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -5926,7 +5926,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -6064,7 +6064,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -6137,7 +6137,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -6283,7 +6283,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -6352,7 +6352,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -6421,7 +6421,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -6778,7 +6778,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -6847,7 +6847,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -6920,7 +6920,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -6993,7 +6993,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -7062,7 +7062,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -7208,7 +7208,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -7277,7 +7277,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -7569,7 +7569,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -7638,7 +7638,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -7703,7 +7703,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7776,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -7845,7 +7845,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -7914,7 +7914,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -7983,7 +7983,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -8056,7 +8056,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -8129,7 +8129,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -8198,7 +8198,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -8344,7 +8344,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -8417,7 +8417,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -8486,7 +8486,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -8770,7 +8770,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -8843,7 +8843,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -8989,7 +8989,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -9058,7 +9058,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -9127,7 +9127,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -9200,7 +9200,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -9269,7 +9269,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -9338,7 +9338,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -9407,7 +9407,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -9553,7 +9553,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -9622,7 +9622,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -9695,7 +9695,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -9768,7 +9768,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -9841,7 +9841,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -9910,7 +9910,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -9979,7 +9979,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -10048,7 +10048,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -10117,7 +10117,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -10186,7 +10186,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -10259,7 +10259,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -10328,7 +10328,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -10397,7 +10397,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -10470,7 +10470,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -10543,7 +10543,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -10685,7 +10685,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -10754,7 +10754,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -10900,7 +10900,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -11107,7 +11107,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -11176,7 +11176,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11249,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -11322,7 +11322,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -11460,7 +11460,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -11529,7 +11529,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -11602,7 +11602,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -11675,7 +11675,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -11744,7 +11744,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -11817,7 +11817,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -11963,7 +11963,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -12105,7 +12105,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -12247,7 +12247,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -12320,7 +12320,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -12391,7 +12391,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -12460,7 +12460,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -12529,7 +12529,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -12602,7 +12602,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -12675,7 +12675,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -12744,7 +12744,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -12813,7 +12813,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -12886,7 +12886,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -12955,7 +12955,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -13028,7 +13028,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -13097,7 +13097,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -13170,7 +13170,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -13239,7 +13239,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -13308,7 +13308,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -13377,7 +13377,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -13450,7 +13450,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -13523,7 +13523,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -13665,7 +13665,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -13738,7 +13738,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -13807,7 +13807,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -13876,7 +13876,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -13949,7 +13949,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -14022,7 +14022,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -14091,7 +14091,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -14160,7 +14160,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -14302,7 +14302,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -14371,7 +14371,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -14440,7 +14440,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -14509,7 +14509,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -14582,7 +14582,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -14655,7 +14655,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -14724,7 +14724,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -14797,7 +14797,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -14870,7 +14870,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -14943,7 +14943,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -15012,7 +15012,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -15085,7 +15085,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -15154,7 +15154,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -15227,7 +15227,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -15296,7 +15296,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -15369,7 +15369,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -15442,7 +15442,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -15515,7 +15515,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -15588,7 +15588,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -15730,7 +15730,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -15803,7 +15803,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -15876,7 +15876,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -15949,7 +15949,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -16022,7 +16022,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -16091,7 +16091,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -16160,7 +16160,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -16229,7 +16229,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -16302,7 +16302,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -16371,7 +16371,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -16444,7 +16444,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -16517,7 +16517,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -16586,7 +16586,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -16655,7 +16655,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -16728,7 +16728,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -16797,7 +16797,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -16870,7 +16870,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -16939,7 +16939,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -17012,7 +17012,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -17085,7 +17085,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -17158,7 +17158,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -17227,7 +17227,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -17296,7 +17296,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -17365,7 +17365,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -17434,7 +17434,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -17503,7 +17503,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -17572,7 +17572,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -17645,7 +17645,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -17712,7 +17712,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -17781,7 +17781,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -17850,7 +17850,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -17919,7 +17919,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -17992,7 +17992,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -18061,7 +18061,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -18130,7 +18130,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -18203,7 +18203,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -18272,7 +18272,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -18345,7 +18345,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -18418,7 +18418,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -18491,7 +18491,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -18560,7 +18560,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -18629,7 +18629,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -18698,7 +18698,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -18767,7 +18767,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -18840,7 +18840,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -18911,7 +18911,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -18978,7 +18978,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -19047,7 +19047,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -19120,7 +19120,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -19189,7 +19189,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -19262,7 +19262,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -19331,7 +19331,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -19400,7 +19400,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -19469,7 +19469,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -19538,7 +19538,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -19609,7 +19609,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -19682,7 +19682,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -19755,7 +19755,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -19828,7 +19828,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -19897,7 +19897,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -19966,7 +19966,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -20035,7 +20035,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -20108,7 +20108,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -20177,7 +20177,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -20250,7 +20250,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -20319,7 +20319,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -20392,7 +20392,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -20465,7 +20465,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -20538,7 +20538,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -20611,7 +20611,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -20684,7 +20684,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -20826,7 +20826,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -20893,7 +20893,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -20966,7 +20966,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -21035,7 +21035,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -21108,7 +21108,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -21181,7 +21181,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -21250,7 +21250,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -21319,7 +21319,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -21392,7 +21392,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -21413,10 +21413,10 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E296" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -21538,7 +21538,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -21607,7 +21607,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -21680,7 +21680,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -21749,7 +21749,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -21822,7 +21822,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -21895,7 +21895,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -21964,7 +21964,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -22033,7 +22033,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -22106,7 +22106,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -22175,7 +22175,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -22248,7 +22248,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -22317,7 +22317,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -22390,7 +22390,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -22463,7 +22463,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -22536,7 +22536,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -22605,7 +22605,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -22674,7 +22674,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -22743,7 +22743,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -22812,7 +22812,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -22881,7 +22881,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -22950,7 +22950,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -23023,7 +23023,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -23092,7 +23092,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -23161,7 +23161,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -23234,7 +23234,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -23307,7 +23307,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -23380,7 +23380,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -23449,7 +23449,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -23518,7 +23518,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -23587,7 +23587,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -23656,7 +23656,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -23729,7 +23729,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -23798,7 +23798,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -23867,7 +23867,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -23936,7 +23936,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -24003,7 +24003,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -24072,7 +24072,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -24141,7 +24141,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -24214,7 +24214,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -24287,7 +24287,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -24356,7 +24356,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -24425,7 +24425,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -24498,7 +24498,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -24567,7 +24567,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -24636,7 +24636,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -24709,7 +24709,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -24778,7 +24778,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -24847,7 +24847,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -24916,7 +24916,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -24985,7 +24985,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -25054,7 +25054,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -25123,7 +25123,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -25192,7 +25192,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -25261,7 +25261,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -25330,7 +25330,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -25397,7 +25397,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -25470,7 +25470,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -25539,7 +25539,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -25608,7 +25608,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -25681,7 +25681,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -25748,7 +25748,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -25817,7 +25817,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -25886,7 +25886,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -25955,7 +25955,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -26024,7 +26024,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -26093,7 +26093,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -26162,7 +26162,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -26231,7 +26231,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -26300,7 +26300,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -26373,7 +26373,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -26446,7 +26446,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -26519,7 +26519,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -26586,7 +26586,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -26655,7 +26655,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -26724,7 +26724,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -26793,7 +26793,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -26866,7 +26866,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -26937,7 +26937,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -27010,7 +27010,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -27079,7 +27079,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -27152,7 +27152,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -27225,7 +27225,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -27296,7 +27296,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -27369,7 +27369,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -27442,7 +27442,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -27511,7 +27511,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -27584,7 +27584,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -27655,7 +27655,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -27728,7 +27728,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -27795,7 +27795,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -27862,7 +27862,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -27935,7 +27935,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -28004,7 +28004,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -28075,7 +28075,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -28144,7 +28144,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -28213,7 +28213,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -28282,7 +28282,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -28349,7 +28349,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -28418,7 +28418,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -28487,7 +28487,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -28556,7 +28556,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -28629,7 +28629,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -28702,7 +28702,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -28769,7 +28769,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -28842,7 +28842,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -28909,7 +28909,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -28976,7 +28976,7 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
@@ -29045,7 +29045,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-12-22 12:56:18</t>
+          <t>2022-12-22 20:49:38</t>
         </is>
       </c>
     </row>
